--- a/extraction_summary.xlsx
+++ b/extraction_summary.xlsx
@@ -1,34 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sradak/Downloads/variable_extract/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E2A237-9C5A-EC42-9AC6-E835DD1BB0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Variable Wrong Length</t>
+  </si>
+  <si>
+    <t>Missing Flanking Region</t>
+  </si>
+  <si>
+    <t>Read Too Short</t>
+  </si>
+  <si>
+    <t>Success %</t>
+  </si>
+  <si>
+    <t>Variable Wrong Length %</t>
+  </si>
+  <si>
+    <t>Missing Flanking Region %</t>
+  </si>
+  <si>
+    <t>Read Too Short %</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>36.96</t>
+  </si>
+  <si>
+    <t>31.75</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>31.21</t>
+  </si>
+  <si>
+    <t>2025-08-28 21:47:10</t>
+  </si>
+  <si>
+    <t>2025-08-28 21:47:43</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>68.79</t>
+  </si>
+  <si>
+    <t>2025-08-28 21:54:24</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>68.58</t>
+  </si>
+  <si>
+    <t>2025-08-29 13:46:00</t>
+  </si>
+  <si>
+    <t>33.28</t>
+  </si>
+  <si>
+    <t>35.38</t>
+  </si>
+  <si>
+    <t>2025-08-29 13:47:22</t>
+  </si>
+  <si>
+    <t>2025-08-29 17:47:10</t>
+  </si>
+  <si>
+    <t>2025-08-29 17:47:26</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +140,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,157 +442,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Variable Wrong Length</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Missing Flanking Region</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Read Too Short</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Success %</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Variable Wrong Length %</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Missing Flanking Region %</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Read Too Short %</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>1934</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1661</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1633</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>36.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>31.75</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>31.21</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2025-08-28 21:47:10</t>
-        </is>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>1934</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1661</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1633</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>36.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>31.75</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>31.21</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2025-08-28 21:47:43</t>
-        </is>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3599</v>
+      </c>
+      <c r="E4">
+        <v>1633</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3588</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1633</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1741</v>
+      </c>
+      <c r="C6">
+        <v>1851</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1633</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1741</v>
+      </c>
+      <c r="C7">
+        <v>1851</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1633</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1741</v>
+      </c>
+      <c r="C8">
+        <v>1851</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1633</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/extraction_summary.xlsx
+++ b/extraction_summary.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -956,6 +956,182 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-08-29 18:10:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-08-29 18:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-08-29 18:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-08-29 18:23:34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/extraction_summary.xlsx
+++ b/extraction_summary.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1132,6 +1132,50 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2366</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1229</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>23.49</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-08-29 18:36:58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/extraction_summary.xlsx
+++ b/extraction_summary.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1176,6 +1176,50 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-08-30 18:24:20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/extraction_summary.xlsx
+++ b/extraction_summary.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1220,6 +1220,402 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-08-30 18:55:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-08-30 18:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-08-30 18:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-08-30 18:57:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-08-30 18:58:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-08-30 18:58:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-08-30 18:59:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-08-30 18:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-08-30 19:00:32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/extraction_summary.xlsx
+++ b/extraction_summary.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1616,6 +1616,50 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1633</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-09-01 20:29:32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
